--- a/WebContent/tempFile/订单详细（饿了么模板）.xlsx
+++ b/WebContent/tempFile/订单详细（饿了么模板）.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="订单明细" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -58,6 +58,9 @@
     <t>商户承担代金券补贴</t>
   </si>
   <si>
+    <t>用户支付配送费</t>
+  </si>
+  <si>
     <t>商户收取配送费</t>
   </si>
   <si>
@@ -83,18 +86,6 @@
   </si>
   <si>
     <t>饿了么承担代金券补贴</t>
-  </si>
-  <si>
-    <t>菜品折扣</t>
-  </si>
-  <si>
-    <t>公司承担线上活动费</t>
-  </si>
-  <si>
-    <t>折扣菜金额</t>
-  </si>
-  <si>
-    <t>特价结算</t>
   </si>
 </sst>
 </file>
@@ -102,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,23 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,22 +130,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +233,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,102 +262,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,19 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,43 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,109 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +507,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,15 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,178 +563,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="27" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="27" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="27" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1096,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -1110,17 +1085,15 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
     <col min="13" max="13" width="23.25" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="31.75" customWidth="1"/>
-    <col min="21" max="21" width="52.125" customWidth="1"/>
-    <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="24" customWidth="1"/>
-    <col min="24" max="24" width="11" style="2"/>
-    <col min="25" max="25" width="24.25" customWidth="1"/>
+    <col min="14" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="31.75" customWidth="1"/>
+    <col min="22" max="22" width="52.125" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:27">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:24">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1191,15 +1164,6 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
